--- a/Projects/GMIUS/Data/Dictionary.xlsx
+++ b/Projects/GMIUS/Data/Dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,24 +20,309 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">db</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPBELL'S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progresso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRESSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMI_AUDIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS ADULT ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural/ Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVERAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? package_general_shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTTLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVERAGE A/AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMI_SEGMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROTH/STK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broth/Stk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broth/Stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROWN COW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbells RTS</t>
   </si>
   <si>
     <t xml:space="preserve">RTS</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiles/Peppers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHILES/PEPPERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chilies/Peppers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chobani Greek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOBANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS GRK X SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chobani Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub_brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOBANI A HINT OF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Condensed</t>
   </si>
   <si>
-    <t xml:space="preserve">Broth/Stock</t>
+    <t xml:space="preserve">CONDENSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCHILADA SAUCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking Sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinner Kits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINNER KIT</t>
   </si>
   <si>
     <t xml:space="preserve">Dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY SEASONING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry Seasonings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchilada Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchilada Sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greek Gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE GREEK GODS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACO/HOT SAUCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS KID ORG X ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS KID X ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microwave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS NON-DAIRY YOG/BEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only Kid Anchors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Simply Better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS SIMPLY BETTER X SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progresso RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refried Beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFRIED BEANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALSA/PICANTE/DIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salsa/Picante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siggi's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGGI'S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taco Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taco Sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORTILLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Sauces (Enchilada, Taco, Cooking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOKING SAUCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well Yes RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPBELL'S WELL YES!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoplait Traditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOPLAIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">segment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRADITIONAL DAIRY YOGURT</t>
   </si>
 </sst>
 </file>
@@ -52,6 +337,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -69,12 +355,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,8 +403,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -125,6 +425,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -133,43 +493,749 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0408163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="G6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GMIUS/Data/Dictionary.xlsx
+++ b/Projects/GMIUS/Data/Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="118">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -46,39 +46,39 @@
     <t xml:space="preserve">ASH</t>
   </si>
   <si>
+    <t xml:space="preserve">GMI_AUDIENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPBELL'S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progresso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRESSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS ADULT ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural/ Organic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Campbells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPBELL'S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progresso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRESSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GMI_AUDIENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS ADULT ORG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural/ Organic</t>
-  </si>
-  <si>
     <t xml:space="preserve">BEVERAGE</t>
   </si>
   <si>
@@ -323,6 +323,57 @@
   </si>
   <si>
     <t xml:space="preserve">TRADITIONAL DAIRY YOGURT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMILY FAVORITES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS FM FAV X SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMPLY BETTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADULT SNACKING FORMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS ADULT SNACKING FORMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBIOTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS PROBIOTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON-DAIRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOPLAIT OUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMI_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL REFRIG YOG &amp; YOG BEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOPLAIT YQ</t>
   </si>
 </sst>
 </file>
@@ -332,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -354,8 +405,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,8 +422,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -403,7 +473,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -413,6 +483,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,7 +531,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -493,19 +583,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0408163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,14 +621,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="G2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -569,50 +665,50 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1"/>
       <c r="G6" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -628,7 +724,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,7 +738,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,7 +752,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +847,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -765,7 +861,7 @@
         <v>44</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,7 +875,7 @@
         <v>44</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +889,7 @@
         <v>47</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +903,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +917,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,7 +931,7 @@
         <v>44</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,7 +945,7 @@
         <v>44</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,7 +981,7 @@
         <v>58</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,7 +989,7 @@
         <v>59</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>60</v>
@@ -911,17 +1007,17 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,17 +1043,17 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -965,10 +1061,10 @@
         <v>70</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -976,10 +1072,10 @@
         <v>71</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>24</v>
@@ -988,7 +1084,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,7 +1106,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>24</v>
@@ -1019,7 +1115,7 @@
         <v>31</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,7 +1135,7 @@
         <v>31</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,7 +1149,7 @@
         <v>31</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,7 +1174,7 @@
         <v>80</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,7 +1188,7 @@
         <v>80</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,7 +1202,7 @@
         <v>49</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,7 +1216,7 @@
         <v>84</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,18 +1231,19 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="0" t="s">
-        <v>8</v>
-      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -1159,7 +1256,7 @@
         <v>58</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,7 +1270,7 @@
         <v>58</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,7 +1284,7 @@
         <v>92</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1201,7 +1298,7 @@
         <v>94</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,6 +1334,154 @@
       <c r="E53" s="0" t="s">
         <v>100</v>
       </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GMIUS/Data/Dictionary.xlsx
+++ b/Projects/GMIUS/Data/Dictionary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="124">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -43,30 +43,36 @@
     <t xml:space="preserve">unknown</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH</t>
+    <t xml:space="preserve">Probiotic (ASH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMI_SEGMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS PROBIOTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brand_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPBELL'S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progresso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRESSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Organic</t>
   </si>
   <si>
     <t xml:space="preserve">GMI_AUDIENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">Campbells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPBELL'S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progresso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROGRESSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Organic</t>
-  </si>
-  <si>
     <t xml:space="preserve">TTL VS ADULT ORG</t>
   </si>
   <si>
@@ -82,21 +88,30 @@
     <t xml:space="preserve">BEVERAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">? package_general_shape</t>
+    <t xml:space="preserve">package_general_shape</t>
   </si>
   <si>
     <t xml:space="preserve">BOTTLE</t>
   </si>
   <si>
+    <t xml:space="preserve">GMI_CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL REFRIG YOG &amp; YOG BEV</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEVERAGE A/AF</t>
   </si>
   <si>
+    <t xml:space="preserve">GMI_SUBCATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL A/AF BEV X GRK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Broth</t>
   </si>
   <si>
-    <t xml:space="preserve">GMI_SEGMENT</t>
-  </si>
-  <si>
     <t xml:space="preserve">BROTH/STK</t>
   </si>
   <si>
@@ -349,9 +364,6 @@
     <t xml:space="preserve">PROBIOTICS</t>
   </si>
   <si>
-    <t xml:space="preserve">TTL VS PROBIOTICS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORGANIC</t>
   </si>
   <si>
@@ -364,16 +376,22 @@
     <t xml:space="preserve">YOPLAIT OUI</t>
   </si>
   <si>
-    <t xml:space="preserve">GMI_CATEGORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL REFRIG YOG &amp; YOG BEV</t>
-  </si>
-  <si>
     <t xml:space="preserve">YQ</t>
   </si>
   <si>
     <t xml:space="preserve">YOPLAIT YQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So Delicious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO DELICIOUS</t>
   </si>
 </sst>
 </file>
@@ -413,7 +431,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,14 +440,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -473,7 +497,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -486,14 +510,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -502,7 +518,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,7 +571,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -583,19 +603,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H49" activeCellId="0" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,867 +644,904 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="G6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="G7" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1"/>
       <c r="F9" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>64</v>
+      <c r="A31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="F34" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="A47" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="A54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="E62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="6" t="s">
+      <c r="E63" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="6" t="s">
+      <c r="E64" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="6"/>
+      <c r="E65" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GMIUS/Data/Dictionary.xlsx
+++ b/Projects/GMIUS/Data/Dictionary.xlsx
@@ -10,7 +10,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$64</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$G$64</definedName>
+  </definedNames>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="121">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -37,10 +42,13 @@
     <t xml:space="preserve">value 2</t>
   </si>
   <si>
+    <t xml:space="preserve">unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">not_final</t>
   </si>
   <si>
-    <t xml:space="preserve">unknown</t>
+    <t xml:space="preserve">EMM UPDATE</t>
   </si>
   <si>
     <t xml:space="preserve">Probiotic (ASH)</t>
@@ -55,10 +63,10 @@
     <t xml:space="preserve">Campbells</t>
   </si>
   <si>
-    <t xml:space="preserve">brand_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPBELL'S</t>
+    <t xml:space="preserve">GMI_BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMPBELLS</t>
   </si>
   <si>
     <t xml:space="preserve">Progresso</t>
@@ -88,10 +96,10 @@
     <t xml:space="preserve">BEVERAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">package_general_shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTTLE</t>
+    <t xml:space="preserve">GMI_SUBCATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL A/AF BEV X GRK</t>
   </si>
   <si>
     <t xml:space="preserve">GMI_CATEGORY</t>
@@ -103,12 +111,6 @@
     <t xml:space="preserve">BEVERAGE A/AF</t>
   </si>
   <si>
-    <t xml:space="preserve">GMI_SUBCATEGORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL A/AF BEV X GRK</t>
-  </si>
-  <si>
     <t xml:space="preserve">Broth</t>
   </si>
   <si>
@@ -124,7 +126,7 @@
     <t xml:space="preserve">Brown Cow</t>
   </si>
   <si>
-    <t xml:space="preserve">BROWN COW</t>
+    <t xml:space="preserve">BTL BRN CW YOG/BEV</t>
   </si>
   <si>
     <t xml:space="preserve">Campbells RTS</t>
@@ -145,204 +147,198 @@
     <t xml:space="preserve">Chobani Greek</t>
   </si>
   <si>
-    <t xml:space="preserve">CHOBANI</t>
+    <t xml:space="preserve">GMI_MANUFACTURER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTL CHBN VS GRK X SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chobani Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL CHBN GRK HINT OF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condensed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONDENSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCHILADA SAUCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooking Sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinner Kits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINNER KIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRY SEASONING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry Seasonings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchilada Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enchilada Sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL FAGE GRK SS &amp; MPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greek Gods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTL THE GRK GDS GRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot Sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACO/HOT SAUCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS KID ORG X ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS KID X ORG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microwave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMI_SUBSEGMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICROWAVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non Dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS NON-DAIRY YOG/BEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTL NOOSA VS SIMPLY BETTER XS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Simply Better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL VS SIMPLY BETTER X SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progresso RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refried Beans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REFRIED BEANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALSA/PICANTE/DIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salsa/Picante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasoning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siggi's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTL SIGGIS YOG/BEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taco Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taco Sauces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tortillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORTILLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Sauces (Enchilada, Taco, Cooking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOKING SAUCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well Yes RTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WELL YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoplait Traditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTL YP TRD CORE CUP SS &amp; MPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEK</t>
   </si>
   <si>
     <t xml:space="preserve">TTL VS GRK X SF</t>
   </si>
   <si>
-    <t xml:space="preserve">Chobani Hint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOBANI A HINT OF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condensed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONDENSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooking Sauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENCHILADA SAUCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooking Sauces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinner Kits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINNER KIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRY SEASONING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dry Seasonings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchilada Sauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enchilada Sauces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greek Gods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE GREEK GODS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot Sauces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TACO/HOT SAUCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS KID ORG X ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kid Organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS KID X ORG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microwave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non Dairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS NON-DAIRY YOG/BEV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOOSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only Kid Anchors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organic RTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Simply Better</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTL VS SIMPLY BETTER X SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL RTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">private_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progresso RTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refried Beans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REFRIED BEANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALSA/PICANTE/DIPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salsa/Picante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHELLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siggi's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIGGI'S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taco Sauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taco Sauces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tortillas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TORTILLAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Sauces (Enchilada, Taco, Cooking)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COOKING SAUCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Well Yes RTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMPBELL'S WELL YES!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yoplait Traditional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YOPLAIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRADITIONAL DAIRY YOGURT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEK</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAMILY FAVORITES</t>
   </si>
   <si>
@@ -373,25 +369,25 @@
     <t xml:space="preserve">Oui</t>
   </si>
   <si>
-    <t xml:space="preserve">YOPLAIT OUI</t>
+    <t xml:space="preserve">TTL YP TRD OUI</t>
   </si>
   <si>
     <t xml:space="preserve">YQ</t>
   </si>
   <si>
-    <t xml:space="preserve">YOPLAIT YQ</t>
+    <t xml:space="preserve">TTL YP TRD YQ</t>
   </si>
   <si>
     <t xml:space="preserve">Silk</t>
   </si>
   <si>
-    <t xml:space="preserve">SILK</t>
+    <t xml:space="preserve">BTL SILK TRD</t>
   </si>
   <si>
     <t xml:space="preserve">So Delicious</t>
   </si>
   <si>
-    <t xml:space="preserve">SO DELICIOUS</t>
+    <t xml:space="preserve">BTL SO DLCS VS ND YOG/BEV</t>
   </si>
 </sst>
 </file>
@@ -431,7 +427,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +438,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2F0D9"/>
         <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -463,12 +465,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -497,7 +506,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,7 +519,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,7 +535,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,7 +586,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FFFFFF99"/>
@@ -598,519 +615,499 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H49" activeCellId="0" sqref="H49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
+      <c r="H4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="G6" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="1"/>
-      <c r="F9" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>34</v>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>20</v>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>42</v>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>45</v>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>20</v>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="0" t="s">
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="B34" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>20</v>
+      <c r="C34" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,64 +1115,58 @@
         <v>77</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>78</v>
+        <v>21</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>80</v>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,7 +1174,7 @@
         <v>82</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>83</v>
@@ -1194,41 +1185,32 @@
         <v>84</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,67 +1218,61 @@
         <v>88</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>8</v>
+      <c r="B46" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>91</v>
       </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="B47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,246 +1280,236 @@
         <v>96</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>8</v>
+      <c r="B51" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F51" s="0" t="s">
-        <v>20</v>
+      <c r="D51" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>44</v>
+      <c r="B52" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>36</v>
+      <c r="H52" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="0" t="s">
+      <c r="B53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="B54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
+      <c r="B55" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B56" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
+      <c r="B57" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="s">
+      <c r="B58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
+      <c r="B60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="s">
+      <c r="B61" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="s">
+      <c r="D61" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="s">
+      <c r="B62" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="B63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="5"/>
+      <c r="E63" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="D64" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>25</v>
+      <c r="E64" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G64"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1551,5 +1517,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/GMIUS/Data/Dictionary.xlsx
+++ b/Projects/GMIUS/Data/Dictionary.xlsx
@@ -11,9 +11,10 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$64</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$G$64</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$G$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$G$65</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="123">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -114,7 +115,7 @@
     <t xml:space="preserve">Broth</t>
   </si>
   <si>
-    <t xml:space="preserve">BROTH/STK</t>
+    <t xml:space="preserve">BROTH/STOCK</t>
   </si>
   <si>
     <t xml:space="preserve">Broth/Stk</t>
@@ -183,10 +184,16 @@
     <t xml:space="preserve">Dry</t>
   </si>
   <si>
+    <t xml:space="preserve">DRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dry Seasonings</t>
+  </si>
+  <si>
     <t xml:space="preserve">DRY SEASONING</t>
   </si>
   <si>
-    <t xml:space="preserve">Dry Seasonings</t>
+    <t xml:space="preserve">Dry Seasoning</t>
   </si>
   <si>
     <t xml:space="preserve">Enchilada Sauce</t>
@@ -624,22 +631,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,23 +953,23 @@
         <v>9</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>9</v>
@@ -973,16 +980,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,11 +1007,14 @@
       <c r="A28" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>9</v>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>61</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1022,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>63</v>
@@ -1026,65 +1033,65 @@
         <v>64</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="4" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>21</v>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>20</v>
@@ -1092,22 +1099,22 @@
       <c r="C35" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>76</v>
+        <v>21</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,27 +1122,21 @@
         <v>77</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>12</v>
+      <c r="B38" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>9</v>
@@ -1143,30 +1144,36 @@
       <c r="E38" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>35</v>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,29 +1195,29 @@
         <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,54 +1232,54 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>12</v>
+      <c r="B46" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>9</v>
+      <c r="B47" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>61</v>
+        <v>93</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,20 +1297,11 @@
       <c r="A51" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>12</v>
+      <c r="B51" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,23 +1314,29 @@
       <c r="C52" s="0" t="s">
         <v>101</v>
       </c>
+      <c r="D52" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="H52" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="H53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
@@ -1356,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -1364,13 +1368,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -1378,41 +1382,41 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>10</v>
+      <c r="C58" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -1420,13 +1424,13 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -1434,20 +1438,16 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="B61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,10 +1469,10 @@
       <c r="F62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -1484,9 +1484,7 @@
       <c r="E63" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H63" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -1508,8 +1506,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G64"/>
+  <autoFilter ref="A1:G65"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Projects/GMIUS/Data/Dictionary.xlsx
+++ b/Projects/GMIUS/Data/Dictionary.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$G$65</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$G$65</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$1:$G$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$G$65</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="124">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -139,7 +140,7 @@
     <t xml:space="preserve">Chiles/Peppers</t>
   </si>
   <si>
-    <t xml:space="preserve">CHILES/PEPPERS</t>
+    <t xml:space="preserve">CHILES/PEPPER</t>
   </si>
   <si>
     <t xml:space="preserve">Chilies/Peppers</t>
@@ -311,6 +312,9 @@
   </si>
   <si>
     <t xml:space="preserve">Taco Sauce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACO SAUCE/HOT SAUCE</t>
   </si>
   <si>
     <t xml:space="preserve">Taco Sauces</t>
@@ -633,20 +637,20 @@
   </sheetPr>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,51 +1272,51 @@
         <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>9</v>
@@ -1326,13 +1330,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>1</v>
@@ -1340,13 +1344,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -1354,13 +1358,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -1368,7 +1372,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>9</v>
@@ -1382,7 +1386,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>9</v>
@@ -1396,13 +1400,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -1410,7 +1414,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>9</v>
@@ -1424,7 +1428,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>20</v>
@@ -1438,7 +1442,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>9</v>
@@ -1452,13 +1456,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>25</v>
@@ -1470,13 +1474,13 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>25</v>
@@ -1488,13 +1492,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>25</v>
@@ -1508,13 +1512,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>25</v>
